--- a/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
@@ -451,519 +451,699 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>008638</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>广发科技创新混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>320018</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>诺安新动力混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>79.31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.86</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>400032</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>东方主题精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000242</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城策略精选</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>000433</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>安信鑫发优选混合</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>82.44</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000994</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信睿盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000995</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信睿盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>82.96</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>582003</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东吴配置优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008116</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银华沪深股通精选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009140</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>永赢竞争力精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>240022</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝资源优选混合A</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.25</t>
+          <t>53.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>240022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>华宝资源优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>84.25</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.86</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6263</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000242</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城策略精选</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>73.61</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>010410</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>长城品质成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>56.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>320018</t>
+          <t>011068</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安新动力混合</t>
+          <t>华宝资源优选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.63</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010410</t>
+          <t>000242</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城品质成长混合A</t>
+          <t>景顺长城策略精选</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010411</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城品质成长混合C</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>582003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>东吴配置优化灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.15</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007590</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝绿色领先股票</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>005189</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>海富通量化前锋股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>582003</t>
+          <t>320018</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东吴配置优化灵活配置混合</t>
+          <t>诺安新动力混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161715</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>009140</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>永赢竞争力精选混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005189</t>
+          <t>007590</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票A</t>
+          <t>华宝绿色领先股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005188</t>
+          <t>161715</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票C</t>
+          <t>招商中证大宗商品股票指数（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002634</t>
+          <t>008116</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华宝未来主导产业灵活配置混合</t>
+          <t>银华沪深股通精选混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002910</t>
+          <t>004352</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达供给改革灵活配置混合</t>
+          <t>北信瑞丰研究精选股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008116</t>
+          <t>010411</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>银华沪深股通精选混合</t>
+          <t>长城品质成长混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.57</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>005188</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
+          <t>海富通量化前锋股票C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004352</t>
+          <t>002634</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>北信瑞丰研究精选股票</t>
+          <t>华宝未来主导产业灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.23</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009140</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>永赢竞争力精选混合</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89.69</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2511</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2284,4 +2285,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2873,4 +2874,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2882,7 +2883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2893,17 +2894,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2913,14 +2934,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.4</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3476</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2929,14 +2972,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.67</v>
       </c>
     </row>
     <row r="4">
@@ -2945,14 +3010,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.35</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4381</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2961,13 +3048,1137 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4122</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4077,7 +4078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4088,17 +4089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4108,14 +4129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.38</v>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4124,14 +4167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.4</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8459</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4140,14 +4205,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.67</v>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>56.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4156,14 +4243,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.35</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4172,13 +4281,1041 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516570</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证石化产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5198,7 +5199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5209,17 +5210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5229,14 +5250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.65</v>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4548</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5245,14 +5288,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.38</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5261,14 +5326,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.4</v>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5277,14 +5364,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4958</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.67</v>
       </c>
     </row>
     <row r="6">
@@ -5293,14 +5402,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.35</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -5309,13 +5440,1057 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>5.79</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>5.65</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>5.38</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>4.4</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>4.67</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6.35</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.81</v>
       </c>
     </row>
@@ -600,6 +617,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6501</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3552</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>56.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商改革创新股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>56.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012075</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012076</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>016052</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商改革创新股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>56.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014659</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014660</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金元顺安行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>37.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016246</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1757,7 +3692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2877,7 +4812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4071,7 +6006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4659,7 +6594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4905,7 +6840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5797,7 +7732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600989-宝丰能源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>14.14</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>5.79</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>5.65</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>5.38</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>4.4</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>4.67</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>6.35</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,732 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6685</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1336,1312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6829</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5871</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4087</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012075</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012076</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达稳健添利混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>47.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016053</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016054</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰康先进材料股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015328</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015329</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分化工产业主题指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>017167</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2534,7 +4559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3692,7 +5717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4812,7 +6837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6006,7 +8031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6594,7 +8619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6840,7 +8865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7730,706 +9755,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达供给改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6685</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008638</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发科技创新混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3631</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161834</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华鑫锐灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1935</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000242</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城策略精选</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1109</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>400032</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方主题精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0940</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0859</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0852</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008116</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>银华沪深股通精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501022</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华鑫盛灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.96</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000994</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信睿盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0350</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>320018</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺安新动力混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009140</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>永赢竞争力精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000995</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信睿盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>35.62</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>582003</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东吴配置优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000433</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信鑫发优选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>